--- a/week-1/Exercises/1-2-A-basics-formulas-functions-exercises.xlsx
+++ b/week-1/Exercises/1-2-A-basics-formulas-functions-exercises.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-1\Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\data-analytics-lectures\week-1\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1148DC-24A2-4FC5-994F-533E3265DB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="nyc-population" sheetId="6" r:id="rId2"/>
+    <sheet name="temperature" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Max</t>
   </si>
@@ -61,12 +63,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://docs.google.com/presentation/d/1ycDJJLswYTzb7qKCeUf1LKM-umtyQ6JT4Usu_tQxKb0/edit  </t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Temperature (Fahreinheit)</t>
+  </si>
+  <si>
+    <t>Temperature (Celsius)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,10 +116,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,17 +412,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -409,26 +432,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -454,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1800</v>
       </c>
@@ -474,7 +497,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1810</v>
       </c>
@@ -494,7 +517,7 @@
         <v>5347</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>123706</v>
       </c>
@@ -511,7 +534,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>202589</v>
       </c>
@@ -528,7 +551,7 @@
         <v>7082</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>312710</v>
       </c>
@@ -545,7 +568,7 @@
         <v>10965</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>515547</v>
       </c>
@@ -562,7 +585,7 @@
         <v>15061</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>813669</v>
       </c>
@@ -579,7 +602,7 @@
         <v>25492</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>942292</v>
       </c>
@@ -596,7 +619,7 @@
         <v>33029</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>1164673</v>
       </c>
@@ -613,7 +636,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>1441216</v>
       </c>
@@ -630,7 +653,7 @@
         <v>51693</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>1850093</v>
       </c>
@@ -647,7 +670,7 @@
         <v>67021</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>2331542</v>
       </c>
@@ -664,7 +687,7 @@
         <v>85969</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>2284103</v>
       </c>
@@ -681,7 +704,7 @@
         <v>116531</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>1867312</v>
       </c>
@@ -698,7 +721,7 @@
         <v>158346</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>1889924</v>
       </c>
@@ -715,7 +738,7 @@
         <v>174441</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1960101</v>
       </c>
@@ -732,7 +755,7 @@
         <v>191555</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>1698281</v>
       </c>
@@ -749,7 +772,7 @@
         <v>221991</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>1539233</v>
       </c>
@@ -766,7 +789,7 @@
         <v>295443</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>1428285</v>
       </c>
@@ -783,7 +806,7 @@
         <v>352121</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1487536</v>
       </c>
@@ -800,7 +823,7 @@
         <v>378977</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>1537195</v>
       </c>
@@ -817,7 +840,7 @@
         <v>443728</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>1585873</v>
       </c>
@@ -832,6 +855,73 @@
       </c>
       <c r="F23" s="1">
         <v>468730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA14FEB6-2209-4615-A9DA-8B6F68F6C8A4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>43728</v>
+      </c>
+      <c r="B2" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>43729</v>
+      </c>
+      <c r="B3" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43730</v>
+      </c>
+      <c r="B4" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43731</v>
+      </c>
+      <c r="B5" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>43732</v>
+      </c>
+      <c r="B6" s="3">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
